--- a/database/data/wiktionary/cinnamon.xlsx
+++ b/database/data/wiktionary/cinnamon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\GitHub\aromatica\database\data\wiktionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81666F24-8F9E-4FCB-A753-2A4BC357F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E65359-7828-45CD-A9D8-D3C94022FFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="591">
   <si>
     <t>skip</t>
   </si>
@@ -2055,6 +2055,15 @@
   </si>
   <si>
     <t>Maguindanao</t>
+  </si>
+  <si>
+    <t>from Persian</t>
+  </si>
+  <si>
+    <t>https://www.nisanyansozluk.com/kelime/tar%C3%A7%C4%B1n</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -2452,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7352,6 +7361,9 @@
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>294</v>
+      </c>
       <c r="C207" t="s">
         <v>455</v>
       </c>
@@ -7361,6 +7373,9 @@
       <c r="E207" t="s">
         <v>61</v>
       </c>
+      <c r="J207" t="s">
+        <v>588</v>
+      </c>
       <c r="L207" t="s">
         <v>231</v>
       </c>
@@ -7370,8 +7385,11 @@
       <c r="N207" t="s">
         <v>9</v>
       </c>
+      <c r="P207" t="s">
+        <v>590</v>
+      </c>
       <c r="Q207" t="s">
-        <v>290</v>
+        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
